--- a/SchedulingData/dynamic16/pso/scheduling1_16.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.9</v>
+        <v>68.2</v>
       </c>
       <c r="E2" t="n">
-        <v>25.5</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.48</v>
+        <v>59.76</v>
       </c>
       <c r="E3" t="n">
-        <v>26.832</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56.9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>21.12</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>64.12</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>25.788</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>71.66</v>
+        <v>36.92</v>
       </c>
       <c r="E6" t="n">
-        <v>26.024</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="7">
@@ -561,74 +561,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.92</v>
+        <v>48.2</v>
       </c>
       <c r="E7" t="n">
-        <v>27.008</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71.66</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>120.02</v>
+        <v>124.88</v>
       </c>
       <c r="E8" t="n">
-        <v>22.808</v>
+        <v>22.332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120.02</v>
+        <v>48.2</v>
       </c>
       <c r="D9" t="n">
-        <v>188.16</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>20.104</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>188.16</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>256</v>
+        <v>167.5</v>
       </c>
       <c r="E10" t="n">
-        <v>15.96</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="11">
@@ -637,283 +637,283 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48.48</v>
+        <v>59.76</v>
       </c>
       <c r="D11" t="n">
-        <v>121.7</v>
+        <v>109.86</v>
       </c>
       <c r="E11" t="n">
-        <v>22.62</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="D12" t="n">
-        <v>89.56</v>
+        <v>111.08</v>
       </c>
       <c r="E12" t="n">
-        <v>27.184</v>
+        <v>22.192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89.56</v>
+        <v>124.88</v>
       </c>
       <c r="D13" t="n">
-        <v>184.24</v>
+        <v>178.72</v>
       </c>
       <c r="E13" t="n">
-        <v>22.816</v>
+        <v>19.548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.7</v>
+        <v>36.92</v>
       </c>
       <c r="D14" t="n">
-        <v>174.6</v>
+        <v>93.22</v>
       </c>
       <c r="E14" t="n">
-        <v>18.46</v>
+        <v>22.508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>184.24</v>
+        <v>167.5</v>
       </c>
       <c r="D15" t="n">
-        <v>222.8</v>
+        <v>267</v>
       </c>
       <c r="E15" t="n">
-        <v>19.6</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>64.12</v>
+        <v>93.22</v>
       </c>
       <c r="D16" t="n">
-        <v>118.28</v>
+        <v>127.82</v>
       </c>
       <c r="E16" t="n">
-        <v>21.992</v>
+        <v>20.188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>222.8</v>
+        <v>109.86</v>
       </c>
       <c r="D17" t="n">
-        <v>293.62</v>
+        <v>168.18</v>
       </c>
       <c r="E17" t="n">
-        <v>16.608</v>
+        <v>18.612</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>174.6</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>229.5</v>
+        <v>129.5</v>
       </c>
       <c r="E18" t="n">
-        <v>15.08</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>293.62</v>
+        <v>168.18</v>
       </c>
       <c r="D19" t="n">
-        <v>340.42</v>
+        <v>232.84</v>
       </c>
       <c r="E19" t="n">
-        <v>13.568</v>
+        <v>15.756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>41.92</v>
+        <v>127.82</v>
       </c>
       <c r="D20" t="n">
-        <v>134.72</v>
+        <v>203.24</v>
       </c>
       <c r="E20" t="n">
-        <v>22.808</v>
+        <v>16.756</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>340.42</v>
+        <v>111.08</v>
       </c>
       <c r="D21" t="n">
-        <v>419.42</v>
+        <v>168.18</v>
       </c>
       <c r="E21" t="n">
-        <v>11.248</v>
+        <v>18.592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>229.5</v>
+        <v>168.18</v>
       </c>
       <c r="D22" t="n">
-        <v>301.4</v>
+        <v>215.58</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>15.472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>118.28</v>
+        <v>215.58</v>
       </c>
       <c r="D23" t="n">
-        <v>173.26</v>
+        <v>271.52</v>
       </c>
       <c r="E23" t="n">
-        <v>17.624</v>
+        <v>11.988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>173.26</v>
+        <v>271.52</v>
       </c>
       <c r="D24" t="n">
-        <v>221.86</v>
+        <v>339.02</v>
       </c>
       <c r="E24" t="n">
-        <v>14.384</v>
+        <v>8.868</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>127</v>
+        <v>178.72</v>
       </c>
       <c r="D25" t="n">
-        <v>180.5</v>
+        <v>226.56</v>
       </c>
       <c r="E25" t="n">
-        <v>17.88</v>
+        <v>15.404</v>
       </c>
     </row>
     <row r="26">
@@ -922,299 +922,299 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>221.86</v>
+        <v>226.56</v>
       </c>
       <c r="D26" t="n">
-        <v>278.96</v>
+        <v>267.6</v>
       </c>
       <c r="E26" t="n">
-        <v>11.304</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>278.96</v>
+        <v>203.24</v>
       </c>
       <c r="D27" t="n">
-        <v>338.2</v>
+        <v>261.64</v>
       </c>
       <c r="E27" t="n">
-        <v>8.52</v>
+        <v>12.556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>419.42</v>
+        <v>267.6</v>
       </c>
       <c r="D28" t="n">
-        <v>489.02</v>
+        <v>311.3</v>
       </c>
       <c r="E28" t="n">
-        <v>8.368</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>256</v>
+        <v>232.84</v>
       </c>
       <c r="D29" t="n">
-        <v>300.9</v>
+        <v>310.76</v>
       </c>
       <c r="E29" t="n">
-        <v>12.6</v>
+        <v>11.544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>134.72</v>
+        <v>311.3</v>
       </c>
       <c r="D30" t="n">
-        <v>201</v>
+        <v>359.08</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28</v>
+        <v>6.052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>201</v>
+        <v>261.64</v>
       </c>
       <c r="D31" t="n">
-        <v>266.2</v>
+        <v>309.34</v>
       </c>
       <c r="E31" t="n">
-        <v>14.9</v>
+        <v>8.916</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>300.9</v>
+        <v>129.5</v>
       </c>
       <c r="D32" t="n">
-        <v>373.48</v>
+        <v>182.94</v>
       </c>
       <c r="E32" t="n">
-        <v>8.952</v>
+        <v>18.596</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>266.2</v>
+        <v>309.34</v>
       </c>
       <c r="D33" t="n">
-        <v>333.7</v>
+        <v>374.22</v>
       </c>
       <c r="E33" t="n">
-        <v>11.26</v>
+        <v>4.548</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>333.7</v>
+        <v>310.76</v>
       </c>
       <c r="D34" t="n">
-        <v>375.42</v>
+        <v>347.26</v>
       </c>
       <c r="E34" t="n">
-        <v>8.708</v>
+        <v>9.023999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>338.2</v>
+        <v>182.94</v>
       </c>
       <c r="D35" t="n">
-        <v>434.42</v>
+        <v>231.3</v>
       </c>
       <c r="E35" t="n">
-        <v>4.488</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>375.42</v>
+        <v>347.26</v>
       </c>
       <c r="D36" t="n">
-        <v>444.38</v>
+        <v>403.42</v>
       </c>
       <c r="E36" t="n">
-        <v>4.912</v>
+        <v>5.048</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>301.4</v>
+        <v>359.08</v>
       </c>
       <c r="D37" t="n">
-        <v>345.78</v>
+        <v>418.88</v>
       </c>
       <c r="E37" t="n">
-        <v>9.192</v>
+        <v>2.672</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>434.42</v>
+        <v>231.3</v>
       </c>
       <c r="D38" t="n">
-        <v>463.7</v>
+        <v>278.22</v>
       </c>
       <c r="E38" t="n">
-        <v>2.2</v>
+        <v>12.828</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>180.5</v>
+        <v>267</v>
       </c>
       <c r="D39" t="n">
-        <v>230.1</v>
+        <v>330.2</v>
       </c>
       <c r="E39" t="n">
-        <v>15.04</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>444.38</v>
+        <v>403.42</v>
       </c>
       <c r="D40" t="n">
-        <v>501.96</v>
+        <v>472.72</v>
       </c>
       <c r="E40" t="n">
-        <v>1.264</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>501.96</v>
+        <v>472.72</v>
       </c>
       <c r="D41" t="n">
-        <v>586.03</v>
+        <v>546.22</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1222,40 +1222,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>489.02</v>
+        <v>418.88</v>
       </c>
       <c r="D42" t="n">
-        <v>567.72</v>
+        <v>485.54</v>
       </c>
       <c r="E42" t="n">
-        <v>5.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>586.03</v>
+        <v>485.54</v>
       </c>
       <c r="D43" t="n">
-        <v>646.5700000000001</v>
+        <v>567.74</v>
       </c>
       <c r="E43" t="n">
-        <v>27.096</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="44">
@@ -1264,74 +1264,74 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>373.48</v>
+        <v>339.02</v>
       </c>
       <c r="D44" t="n">
-        <v>432.48</v>
+        <v>412.12</v>
       </c>
       <c r="E44" t="n">
-        <v>5.652</v>
+        <v>4.668</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>345.78</v>
+        <v>567.74</v>
       </c>
       <c r="D45" t="n">
-        <v>409.3</v>
+        <v>638.96</v>
       </c>
       <c r="E45" t="n">
-        <v>4.98</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>230.1</v>
+        <v>546.22</v>
       </c>
       <c r="D46" t="n">
-        <v>311.46</v>
+        <v>594.7</v>
       </c>
       <c r="E46" t="n">
-        <v>10.504</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>432.48</v>
+        <v>330.2</v>
       </c>
       <c r="D47" t="n">
-        <v>471.88</v>
+        <v>391.68</v>
       </c>
       <c r="E47" t="n">
-        <v>2.352</v>
+        <v>9.532</v>
       </c>
     </row>
     <row r="48">
@@ -1340,188 +1340,188 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>409.3</v>
+        <v>594.7</v>
       </c>
       <c r="D48" t="n">
-        <v>455.7</v>
+        <v>633.88</v>
       </c>
       <c r="E48" t="n">
-        <v>2.46</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>463.7</v>
+        <v>374.22</v>
       </c>
       <c r="D49" t="n">
-        <v>536.2</v>
+        <v>422.68</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>1.332</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>536.2</v>
+        <v>422.68</v>
       </c>
       <c r="D50" t="n">
-        <v>606.16</v>
+        <v>501.82</v>
       </c>
       <c r="E50" t="n">
-        <v>27.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>606.16</v>
+        <v>412.12</v>
       </c>
       <c r="D51" t="n">
-        <v>687</v>
+        <v>445.56</v>
       </c>
       <c r="E51" t="n">
-        <v>23.66</v>
+        <v>1.964</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>311.46</v>
+        <v>445.56</v>
       </c>
       <c r="D52" t="n">
-        <v>357.4</v>
+        <v>538.03</v>
       </c>
       <c r="E52" t="n">
-        <v>8.039999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455.7</v>
+        <v>501.82</v>
       </c>
       <c r="D53" t="n">
-        <v>522.6799999999999</v>
+        <v>581.72</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>522.6799999999999</v>
+        <v>278.22</v>
       </c>
       <c r="D54" t="n">
-        <v>604.98</v>
+        <v>332.48</v>
       </c>
       <c r="E54" t="n">
-        <v>26.4</v>
+        <v>10.012</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>604.98</v>
+        <v>391.68</v>
       </c>
       <c r="D55" t="n">
-        <v>673.28</v>
+        <v>435.38</v>
       </c>
       <c r="E55" t="n">
-        <v>22.68</v>
+        <v>6.292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>357.4</v>
+        <v>435.38</v>
       </c>
       <c r="D56" t="n">
-        <v>432</v>
+        <v>498.7</v>
       </c>
       <c r="E56" t="n">
-        <v>4.66</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>646.5700000000001</v>
+        <v>332.48</v>
       </c>
       <c r="D57" t="n">
-        <v>699.17</v>
+        <v>374.18</v>
       </c>
       <c r="E57" t="n">
-        <v>23.976</v>
+        <v>6.972</v>
       </c>
     </row>
     <row r="58">
@@ -1530,71 +1530,71 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>567.72</v>
+        <v>374.18</v>
       </c>
       <c r="D58" t="n">
-        <v>648.04</v>
+        <v>420.5</v>
       </c>
       <c r="E58" t="n">
-        <v>1.636</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>648.04</v>
+        <v>538.03</v>
       </c>
       <c r="D59" t="n">
-        <v>741.37</v>
+        <v>610.4299999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>673.28</v>
+        <v>610.4299999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>723.78</v>
+        <v>654.8099999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>20.24</v>
+        <v>24.112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>432</v>
+        <v>420.5</v>
       </c>
       <c r="D61" t="n">
-        <v>494.68</v>
+        <v>513.84</v>
       </c>
       <c r="E61" t="n">
         <v>30</v>
@@ -1602,116 +1602,97 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>494.68</v>
+        <v>513.84</v>
       </c>
       <c r="D62" t="n">
-        <v>578.22</v>
+        <v>605.7</v>
       </c>
       <c r="E62" t="n">
-        <v>25.296</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>471.88</v>
+        <v>638.96</v>
       </c>
       <c r="D63" t="n">
-        <v>549.1799999999999</v>
+        <v>695.72</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>18.832</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>549.1799999999999</v>
+        <v>633.88</v>
       </c>
       <c r="D64" t="n">
-        <v>617.78</v>
+        <v>703.98</v>
       </c>
       <c r="E64" t="n">
-        <v>25.8</v>
+        <v>20.164</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>687</v>
+        <v>654.8099999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>739.4</v>
+        <v>708.91</v>
       </c>
       <c r="E65" t="n">
-        <v>20.54</v>
+        <v>20.812</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>617.78</v>
+        <v>605.7</v>
       </c>
       <c r="D66" t="n">
-        <v>679.64</v>
+        <v>666.3</v>
       </c>
       <c r="E66" t="n">
-        <v>21.744</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>pond53</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>578.22</v>
-      </c>
-      <c r="D67" t="n">
-        <v>625.62</v>
-      </c>
-      <c r="E67" t="n">
-        <v>22.176</v>
+        <v>23.024</v>
       </c>
     </row>
   </sheetData>
